--- a/src/test/resources/Datas.xlsx
+++ b/src/test/resources/Datas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
@@ -15,8 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,21 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>First name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+  <si>
+    <t>Kulaklik</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Firin</t>
+  </si>
+  <si>
+    <t>Teknoloji</t>
+  </si>
+  <si>
+    <t>Ev Esyalari</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,26 +379,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
